--- a/IntegrationTest/EA07_BasicInformation_結合試験項目書.xlsx
+++ b/IntegrationTest/EA07_BasicInformation_結合試験項目書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentaro_ohkouchi\git-repos\eccube3-doc\IntegrationTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15315" yWindow="0" windowWidth="21315" windowHeight="20865" tabRatio="500"/>
+    <workbookView xWindow="15315" yWindow="0" windowWidth="21315" windowHeight="20865" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -783,22 +788,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>押したボタンに合わせて位置が変化する。登録完了メッセージが表示される</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>御承認</t>
     <rPh sb="0" eb="3">
       <t>▽ゴショウニン</t>
@@ -969,6 +958,43 @@
   <si>
     <t>Ver 01.00</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マウスのドラッグ&amp;ドロップで上下移動させる</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配送方法の移動が完了する</t>
+    <rPh sb="0" eb="2">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"編集"、"削除"ボタンが押下可能になる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -979,7 +1005,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,8 +1104,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,7 +1430,7 @@
     <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,12 +1487,24 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="114" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="114" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="114" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="114" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="114" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="114" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="114" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,18 +1532,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="114" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="114" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="114" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="114" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1678,6 +1717,75 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="117">
@@ -1804,6 +1912,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2533,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H9:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
@@ -3110,28 +3221,28 @@
     </row>
     <row r="26" spans="8:42" ht="17.100000000000001" customHeight="1">
       <c r="W26" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
       <c r="AA26" s="27"/>
       <c r="AB26" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
       <c r="AF26" s="27"/>
       <c r="AG26" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
       <c r="AJ26" s="26"/>
       <c r="AK26" s="27"/>
       <c r="AL26" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM26" s="26"/>
       <c r="AN26" s="26"/>
@@ -3537,69 +3648,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="37"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="41"/>
     </row>
     <row r="2" spans="1:43" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -3612,41 +3723,41 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="32">
+      <c r="O2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="36">
         <v>42286</v>
       </c>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="34"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="38"/>
     </row>
     <row r="3" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="6"/>
@@ -3695,118 +3806,118 @@
     </row>
     <row r="4" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
       <c r="AQ4" s="8"/>
     </row>
     <row r="5" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="41">
+      <c r="B5" s="28">
         <v>42286</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
+      <c r="O5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
       <c r="AQ5" s="8"/>
     </row>
     <row r="6" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
@@ -3816,42 +3927,42 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
@@ -3861,42 +3972,42 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -3906,42 +4017,42 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
       <c r="AQ8" s="8"/>
     </row>
     <row r="9" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -3951,42 +4062,42 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
       <c r="AQ9" s="8"/>
     </row>
     <row r="10" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -3996,42 +4107,42 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
       <c r="AQ10" s="8"/>
     </row>
     <row r="11" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -4041,42 +4152,42 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
       <c r="AQ11" s="8"/>
     </row>
     <row r="12" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
@@ -4086,42 +4197,42 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
       <c r="AQ12" s="8"/>
     </row>
     <row r="13" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -4131,42 +4242,42 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
       <c r="AQ13" s="8"/>
     </row>
     <row r="14" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
@@ -4176,42 +4287,42 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="8"/>
     </row>
     <row r="15" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4221,42 +4332,42 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
       <c r="AQ15" s="8"/>
     </row>
     <row r="16" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
@@ -4266,42 +4377,42 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
       <c r="N16" s="29"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
       <c r="AQ16" s="8"/>
     </row>
     <row r="17" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
@@ -4311,42 +4422,42 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
       <c r="AQ17" s="8"/>
     </row>
     <row r="18" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
@@ -4356,42 +4467,42 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
       <c r="AQ18" s="8"/>
     </row>
     <row r="19" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
@@ -4401,42 +4512,42 @@
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
       <c r="AQ19" s="8"/>
     </row>
     <row r="20" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
@@ -4446,42 +4557,42 @@
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="N20" s="29"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
       <c r="AQ20" s="8"/>
     </row>
     <row r="21" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
@@ -4491,42 +4602,42 @@
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
       <c r="AQ21" s="8"/>
     </row>
     <row r="22" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -4536,42 +4647,42 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
       <c r="AQ22" s="8"/>
     </row>
     <row r="23" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -4581,42 +4692,42 @@
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
       <c r="AQ23" s="8"/>
     </row>
     <row r="24" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -4626,42 +4737,42 @@
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
       <c r="AQ24" s="8"/>
     </row>
     <row r="25" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -4671,42 +4782,42 @@
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="30"/>
       <c r="AQ25" s="8"/>
     </row>
     <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -4716,42 +4827,42 @@
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="42"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
       <c r="AQ26" s="8"/>
     </row>
     <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -4761,42 +4872,42 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
       <c r="AQ27" s="8"/>
     </row>
     <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -4806,42 +4917,42 @@
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="30"/>
+      <c r="AO28" s="30"/>
+      <c r="AP28" s="30"/>
       <c r="AQ28" s="8"/>
     </row>
     <row r="29" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
@@ -4851,42 +4962,42 @@
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="30"/>
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="30"/>
       <c r="AQ29" s="8"/>
     </row>
     <row r="30" spans="1:43" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
@@ -4896,34 +5007,34 @@
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="30"/>
+      <c r="AO30" s="30"/>
+      <c r="AP30" s="30"/>
       <c r="AQ30" s="8"/>
     </row>
     <row r="31" spans="1:43" ht="17.100000000000001" customHeight="1">
@@ -4973,6 +5084,138 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:AG4"/>
+    <mergeCell ref="AH4:AP4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:AG5"/>
+    <mergeCell ref="AH5:AP5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O6:AG6"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:AG7"/>
+    <mergeCell ref="AH7:AP7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="O8:AG8"/>
+    <mergeCell ref="AH8:AP8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="AH9:AP9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:AG10"/>
+    <mergeCell ref="AH10:AP10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:AG11"/>
+    <mergeCell ref="AH11:AP11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:AG12"/>
+    <mergeCell ref="AH12:AP12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="AH13:AP13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="O14:AG14"/>
+    <mergeCell ref="AH14:AP14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="O15:AG15"/>
+    <mergeCell ref="AH15:AP15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="O16:AG16"/>
+    <mergeCell ref="AH16:AP16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="O17:AG17"/>
+    <mergeCell ref="AH17:AP17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:AG18"/>
+    <mergeCell ref="AH18:AP18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:AG19"/>
+    <mergeCell ref="AH19:AP19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O20:AG20"/>
+    <mergeCell ref="AH20:AP20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="AH21:AP21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="AH22:AP22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="AH23:AP23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="O24:AG24"/>
+    <mergeCell ref="AH24:AP24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="O25:AG25"/>
+    <mergeCell ref="AH25:AP25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="O26:AG26"/>
+    <mergeCell ref="AH26:AP26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:AG27"/>
+    <mergeCell ref="AH27:AP27"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:N30"/>
@@ -4988,138 +5231,6 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="O29:AG29"/>
     <mergeCell ref="AH29:AP29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="O26:AG26"/>
-    <mergeCell ref="AH26:AP26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="O27:AG27"/>
-    <mergeCell ref="AH27:AP27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="O24:AG24"/>
-    <mergeCell ref="AH24:AP24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="O25:AG25"/>
-    <mergeCell ref="AH25:AP25"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="AH22:AP22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="AH23:AP23"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="O20:AG20"/>
-    <mergeCell ref="AH20:AP20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:AG21"/>
-    <mergeCell ref="AH21:AP21"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:AG18"/>
-    <mergeCell ref="AH18:AP18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:AG19"/>
-    <mergeCell ref="AH19:AP19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="O16:AG16"/>
-    <mergeCell ref="AH16:AP16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="O17:AG17"/>
-    <mergeCell ref="AH17:AP17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="O14:AG14"/>
-    <mergeCell ref="AH14:AP14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="O15:AG15"/>
-    <mergeCell ref="AH15:AP15"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:AG12"/>
-    <mergeCell ref="AH12:AP12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:AG13"/>
-    <mergeCell ref="AH13:AP13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O10:AG10"/>
-    <mergeCell ref="AH10:AP10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:AG11"/>
-    <mergeCell ref="AH11:AP11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="O8:AG8"/>
-    <mergeCell ref="AH8:AP8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:AG9"/>
-    <mergeCell ref="AH9:AP9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:AG6"/>
-    <mergeCell ref="AH6:AP6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:AG7"/>
-    <mergeCell ref="AH7:AP7"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:AG4"/>
-    <mergeCell ref="AH4:AP4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:AG5"/>
-    <mergeCell ref="AH5:AP5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5134,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK124"/>
+  <dimension ref="A1:AK125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AJ1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105:K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25"/>
@@ -5279,7 +5390,7 @@
       <c r="AG3" s="97"/>
       <c r="AH3" s="98"/>
       <c r="AI3" s="96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AJ3" s="98"/>
     </row>
@@ -8025,7 +8136,7 @@
       <c r="J70" s="58"/>
       <c r="K70" s="59"/>
       <c r="L70" s="60" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="M70" s="61"/>
       <c r="N70" s="61"/>
@@ -8232,7 +8343,7 @@
       <c r="J75" s="47"/>
       <c r="K75" s="48"/>
       <c r="L75" s="49" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M75" s="50"/>
       <c r="N75" s="50"/>
@@ -8273,7 +8384,7 @@
       <c r="J76" s="47"/>
       <c r="K76" s="48"/>
       <c r="L76" s="49" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="M76" s="50"/>
       <c r="N76" s="50"/>
@@ -8313,9 +8424,7 @@
       <c r="I77" s="58"/>
       <c r="J77" s="58"/>
       <c r="K77" s="59"/>
-      <c r="L77" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="L77" s="60"/>
       <c r="M77" s="61"/>
       <c r="N77" s="61"/>
       <c r="O77" s="61"/>
@@ -8685,7 +8794,7 @@
       <c r="J86" s="58"/>
       <c r="K86" s="59"/>
       <c r="L86" s="60" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="M86" s="61"/>
       <c r="N86" s="61"/>
@@ -9056,7 +9165,7 @@
       <c r="J95" s="58"/>
       <c r="K95" s="59"/>
       <c r="L95" s="60" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="M95" s="61"/>
       <c r="N95" s="61"/>
@@ -9371,314 +9480,310 @@
       <c r="AJ102" s="2"/>
       <c r="AK102" s="15"/>
     </row>
-    <row r="103" spans="1:37" ht="26.1" customHeight="1">
-      <c r="A103" s="43" t="s">
+    <row r="103" spans="1:37" ht="18" customHeight="1">
+      <c r="A103" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="109"/>
+      <c r="L103" s="110"/>
+      <c r="M103" s="111"/>
+      <c r="N103" s="111"/>
+      <c r="O103" s="111"/>
+      <c r="P103" s="111"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="111"/>
+      <c r="S103" s="111"/>
+      <c r="T103" s="111"/>
+      <c r="U103" s="111"/>
+      <c r="V103" s="111"/>
+      <c r="W103" s="111"/>
+      <c r="X103" s="111"/>
+      <c r="Y103" s="111"/>
+      <c r="Z103" s="111"/>
+      <c r="AA103" s="111"/>
+      <c r="AB103" s="111"/>
+      <c r="AC103" s="111"/>
+      <c r="AD103" s="111"/>
+      <c r="AE103" s="111"/>
+      <c r="AF103" s="111"/>
+      <c r="AG103" s="112"/>
+      <c r="AH103" s="113"/>
+      <c r="AI103" s="114"/>
+      <c r="AJ103" s="115"/>
+      <c r="AK103" s="15"/>
+    </row>
+    <row r="104" spans="1:37" ht="26.1" customHeight="1">
+      <c r="A104" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46" t="s">
+      <c r="B104" s="117"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="48"/>
-      <c r="L103" s="49" t="s">
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
+      <c r="J104" s="120"/>
+      <c r="K104" s="121"/>
+      <c r="L104" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="M103" s="50"/>
-      <c r="N103" s="50"/>
-      <c r="O103" s="50"/>
-      <c r="P103" s="50"/>
-      <c r="Q103" s="50"/>
-      <c r="R103" s="50"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="50"/>
-      <c r="V103" s="50"/>
-      <c r="W103" s="50"/>
-      <c r="X103" s="50"/>
-      <c r="Y103" s="50"/>
-      <c r="Z103" s="50"/>
-      <c r="AA103" s="50"/>
-      <c r="AB103" s="50"/>
-      <c r="AC103" s="50"/>
-      <c r="AD103" s="50"/>
-      <c r="AE103" s="50"/>
-      <c r="AF103" s="50"/>
-      <c r="AG103" s="51"/>
-      <c r="AH103" s="52"/>
-      <c r="AI103" s="53"/>
-      <c r="AJ103" s="2"/>
-      <c r="AK103" s="15"/>
-    </row>
-    <row r="104" spans="1:37" ht="18" customHeight="1">
-      <c r="A104" s="43"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="48"/>
-      <c r="L104" s="49" t="s">
+      <c r="M104" s="123"/>
+      <c r="N104" s="123"/>
+      <c r="O104" s="123"/>
+      <c r="P104" s="123"/>
+      <c r="Q104" s="123"/>
+      <c r="R104" s="123"/>
+      <c r="S104" s="123"/>
+      <c r="T104" s="123"/>
+      <c r="U104" s="123"/>
+      <c r="V104" s="123"/>
+      <c r="W104" s="123"/>
+      <c r="X104" s="123"/>
+      <c r="Y104" s="123"/>
+      <c r="Z104" s="123"/>
+      <c r="AA104" s="123"/>
+      <c r="AB104" s="123"/>
+      <c r="AC104" s="123"/>
+      <c r="AD104" s="123"/>
+      <c r="AE104" s="123"/>
+      <c r="AF104" s="123"/>
+      <c r="AG104" s="124"/>
+      <c r="AH104" s="125"/>
+      <c r="AI104" s="126"/>
+      <c r="AJ104" s="115"/>
+      <c r="AK104" s="15"/>
+    </row>
+    <row r="105" spans="1:37" ht="18" customHeight="1">
+      <c r="A105" s="116"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="121"/>
+      <c r="L105" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="M104" s="50"/>
-      <c r="N104" s="50"/>
-      <c r="O104" s="50"/>
-      <c r="P104" s="50"/>
-      <c r="Q104" s="50"/>
-      <c r="R104" s="50"/>
-      <c r="S104" s="50"/>
-      <c r="T104" s="50"/>
-      <c r="U104" s="50"/>
-      <c r="V104" s="50"/>
-      <c r="W104" s="50"/>
-      <c r="X104" s="50"/>
-      <c r="Y104" s="50"/>
-      <c r="Z104" s="50"/>
-      <c r="AA104" s="50"/>
-      <c r="AB104" s="50"/>
-      <c r="AC104" s="50"/>
-      <c r="AD104" s="50"/>
-      <c r="AE104" s="50"/>
-      <c r="AF104" s="50"/>
-      <c r="AG104" s="51"/>
-      <c r="AH104" s="52"/>
-      <c r="AI104" s="53"/>
-      <c r="AJ104" s="2"/>
-      <c r="AK104" s="15"/>
-    </row>
-    <row r="105" spans="1:37" ht="18" customHeight="1">
-      <c r="A105" s="43"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
-      <c r="I105" s="47"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="48"/>
-      <c r="L105" s="49" t="s">
+      <c r="M105" s="123"/>
+      <c r="N105" s="123"/>
+      <c r="O105" s="123"/>
+      <c r="P105" s="123"/>
+      <c r="Q105" s="123"/>
+      <c r="R105" s="123"/>
+      <c r="S105" s="123"/>
+      <c r="T105" s="123"/>
+      <c r="U105" s="123"/>
+      <c r="V105" s="123"/>
+      <c r="W105" s="123"/>
+      <c r="X105" s="123"/>
+      <c r="Y105" s="123"/>
+      <c r="Z105" s="123"/>
+      <c r="AA105" s="123"/>
+      <c r="AB105" s="123"/>
+      <c r="AC105" s="123"/>
+      <c r="AD105" s="123"/>
+      <c r="AE105" s="123"/>
+      <c r="AF105" s="123"/>
+      <c r="AG105" s="124"/>
+      <c r="AH105" s="125"/>
+      <c r="AI105" s="126"/>
+      <c r="AJ105" s="115"/>
+      <c r="AK105" s="15"/>
+    </row>
+    <row r="106" spans="1:37" ht="18" customHeight="1">
+      <c r="A106" s="116"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="118"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="120"/>
+      <c r="K106" s="121"/>
+      <c r="L106" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="M105" s="50"/>
-      <c r="N105" s="50"/>
-      <c r="O105" s="50"/>
-      <c r="P105" s="50"/>
-      <c r="Q105" s="50"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="50"/>
-      <c r="T105" s="50"/>
-      <c r="U105" s="50"/>
-      <c r="V105" s="50"/>
-      <c r="W105" s="50"/>
-      <c r="X105" s="50"/>
-      <c r="Y105" s="50"/>
-      <c r="Z105" s="50"/>
-      <c r="AA105" s="50"/>
-      <c r="AB105" s="50"/>
-      <c r="AC105" s="50"/>
-      <c r="AD105" s="50"/>
-      <c r="AE105" s="50"/>
-      <c r="AF105" s="50"/>
-      <c r="AG105" s="51"/>
-      <c r="AH105" s="52"/>
-      <c r="AI105" s="53"/>
-      <c r="AJ105" s="2"/>
-      <c r="AK105" s="15"/>
-    </row>
-    <row r="106" spans="1:37" ht="18" customHeight="1">
-      <c r="A106" s="43"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
-      <c r="I106" s="47"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="48"/>
-      <c r="L106" s="49" t="s">
+      <c r="M106" s="123"/>
+      <c r="N106" s="123"/>
+      <c r="O106" s="123"/>
+      <c r="P106" s="123"/>
+      <c r="Q106" s="123"/>
+      <c r="R106" s="123"/>
+      <c r="S106" s="123"/>
+      <c r="T106" s="123"/>
+      <c r="U106" s="123"/>
+      <c r="V106" s="123"/>
+      <c r="W106" s="123"/>
+      <c r="X106" s="123"/>
+      <c r="Y106" s="123"/>
+      <c r="Z106" s="123"/>
+      <c r="AA106" s="123"/>
+      <c r="AB106" s="123"/>
+      <c r="AC106" s="123"/>
+      <c r="AD106" s="123"/>
+      <c r="AE106" s="123"/>
+      <c r="AF106" s="123"/>
+      <c r="AG106" s="124"/>
+      <c r="AH106" s="125"/>
+      <c r="AI106" s="126"/>
+      <c r="AJ106" s="115"/>
+      <c r="AK106" s="15"/>
+    </row>
+    <row r="107" spans="1:37" ht="18" customHeight="1">
+      <c r="A107" s="116"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="119"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="120"/>
+      <c r="I107" s="120"/>
+      <c r="J107" s="120"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="M106" s="50"/>
-      <c r="N106" s="50"/>
-      <c r="O106" s="50"/>
-      <c r="P106" s="50"/>
-      <c r="Q106" s="50"/>
-      <c r="R106" s="50"/>
-      <c r="S106" s="50"/>
-      <c r="T106" s="50"/>
-      <c r="U106" s="50"/>
-      <c r="V106" s="50"/>
-      <c r="W106" s="50"/>
-      <c r="X106" s="50"/>
-      <c r="Y106" s="50"/>
-      <c r="Z106" s="50"/>
-      <c r="AA106" s="50"/>
-      <c r="AB106" s="50"/>
-      <c r="AC106" s="50"/>
-      <c r="AD106" s="50"/>
-      <c r="AE106" s="50"/>
-      <c r="AF106" s="50"/>
-      <c r="AG106" s="51"/>
-      <c r="AH106" s="52"/>
-      <c r="AI106" s="53"/>
-      <c r="AJ106" s="2"/>
-      <c r="AK106" s="15"/>
-    </row>
-    <row r="107" spans="1:37" ht="18" customHeight="1">
-      <c r="A107" s="43"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="48"/>
-      <c r="L107" s="49" t="s">
+      <c r="M107" s="123"/>
+      <c r="N107" s="123"/>
+      <c r="O107" s="123"/>
+      <c r="P107" s="123"/>
+      <c r="Q107" s="123"/>
+      <c r="R107" s="123"/>
+      <c r="S107" s="123"/>
+      <c r="T107" s="123"/>
+      <c r="U107" s="123"/>
+      <c r="V107" s="123"/>
+      <c r="W107" s="123"/>
+      <c r="X107" s="123"/>
+      <c r="Y107" s="123"/>
+      <c r="Z107" s="123"/>
+      <c r="AA107" s="123"/>
+      <c r="AB107" s="123"/>
+      <c r="AC107" s="123"/>
+      <c r="AD107" s="123"/>
+      <c r="AE107" s="123"/>
+      <c r="AF107" s="123"/>
+      <c r="AG107" s="124"/>
+      <c r="AH107" s="125"/>
+      <c r="AI107" s="126"/>
+      <c r="AJ107" s="115"/>
+      <c r="AK107" s="15"/>
+    </row>
+    <row r="108" spans="1:37" ht="18" customHeight="1">
+      <c r="A108" s="116"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="117"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="119"/>
+      <c r="F108" s="120"/>
+      <c r="G108" s="120"/>
+      <c r="H108" s="120"/>
+      <c r="I108" s="120"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="121"/>
+      <c r="L108" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="M107" s="50"/>
-      <c r="N107" s="50"/>
-      <c r="O107" s="50"/>
-      <c r="P107" s="50"/>
-      <c r="Q107" s="50"/>
-      <c r="R107" s="50"/>
-      <c r="S107" s="50"/>
-      <c r="T107" s="50"/>
-      <c r="U107" s="50"/>
-      <c r="V107" s="50"/>
-      <c r="W107" s="50"/>
-      <c r="X107" s="50"/>
-      <c r="Y107" s="50"/>
-      <c r="Z107" s="50"/>
-      <c r="AA107" s="50"/>
-      <c r="AB107" s="50"/>
-      <c r="AC107" s="50"/>
-      <c r="AD107" s="50"/>
-      <c r="AE107" s="50"/>
-      <c r="AF107" s="50"/>
-      <c r="AG107" s="51"/>
-      <c r="AH107" s="52"/>
-      <c r="AI107" s="53"/>
-      <c r="AJ107" s="2"/>
-      <c r="AK107" s="15"/>
-    </row>
-    <row r="108" spans="1:37" ht="18" customHeight="1">
-      <c r="A108" s="43"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="48"/>
-      <c r="L108" s="49" t="s">
+      <c r="M108" s="123"/>
+      <c r="N108" s="123"/>
+      <c r="O108" s="123"/>
+      <c r="P108" s="123"/>
+      <c r="Q108" s="123"/>
+      <c r="R108" s="123"/>
+      <c r="S108" s="123"/>
+      <c r="T108" s="123"/>
+      <c r="U108" s="123"/>
+      <c r="V108" s="123"/>
+      <c r="W108" s="123"/>
+      <c r="X108" s="123"/>
+      <c r="Y108" s="123"/>
+      <c r="Z108" s="123"/>
+      <c r="AA108" s="123"/>
+      <c r="AB108" s="123"/>
+      <c r="AC108" s="123"/>
+      <c r="AD108" s="123"/>
+      <c r="AE108" s="123"/>
+      <c r="AF108" s="123"/>
+      <c r="AG108" s="124"/>
+      <c r="AH108" s="125"/>
+      <c r="AI108" s="126"/>
+      <c r="AJ108" s="115"/>
+      <c r="AK108" s="15"/>
+    </row>
+    <row r="109" spans="1:37" ht="18" customHeight="1">
+      <c r="A109" s="116"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="119"/>
+      <c r="F109" s="120"/>
+      <c r="G109" s="120"/>
+      <c r="H109" s="120"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="120"/>
+      <c r="K109" s="121"/>
+      <c r="L109" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="M108" s="50"/>
-      <c r="N108" s="50"/>
-      <c r="O108" s="50"/>
-      <c r="P108" s="50"/>
-      <c r="Q108" s="50"/>
-      <c r="R108" s="50"/>
-      <c r="S108" s="50"/>
-      <c r="T108" s="50"/>
-      <c r="U108" s="50"/>
-      <c r="V108" s="50"/>
-      <c r="W108" s="50"/>
-      <c r="X108" s="50"/>
-      <c r="Y108" s="50"/>
-      <c r="Z108" s="50"/>
-      <c r="AA108" s="50"/>
-      <c r="AB108" s="50"/>
-      <c r="AC108" s="50"/>
-      <c r="AD108" s="50"/>
-      <c r="AE108" s="50"/>
-      <c r="AF108" s="50"/>
-      <c r="AG108" s="51"/>
-      <c r="AH108" s="52"/>
-      <c r="AI108" s="53"/>
-      <c r="AJ108" s="2"/>
-      <c r="AK108" s="15"/>
-    </row>
-    <row r="109" spans="1:37" ht="18" customHeight="1">
-      <c r="A109" s="43"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="48"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="50"/>
-      <c r="N109" s="50"/>
-      <c r="O109" s="50"/>
-      <c r="P109" s="50"/>
-      <c r="Q109" s="50"/>
-      <c r="R109" s="50"/>
-      <c r="S109" s="50"/>
-      <c r="T109" s="50"/>
-      <c r="U109" s="50"/>
-      <c r="V109" s="50"/>
-      <c r="W109" s="50"/>
-      <c r="X109" s="50"/>
-      <c r="Y109" s="50"/>
-      <c r="Z109" s="50"/>
-      <c r="AA109" s="50"/>
-      <c r="AB109" s="50"/>
-      <c r="AC109" s="50"/>
-      <c r="AD109" s="50"/>
-      <c r="AE109" s="50"/>
-      <c r="AF109" s="50"/>
-      <c r="AG109" s="51"/>
-      <c r="AH109" s="52"/>
-      <c r="AI109" s="53"/>
-      <c r="AJ109" s="2"/>
+      <c r="M109" s="123"/>
+      <c r="N109" s="123"/>
+      <c r="O109" s="123"/>
+      <c r="P109" s="123"/>
+      <c r="Q109" s="123"/>
+      <c r="R109" s="123"/>
+      <c r="S109" s="123"/>
+      <c r="T109" s="123"/>
+      <c r="U109" s="123"/>
+      <c r="V109" s="123"/>
+      <c r="W109" s="123"/>
+      <c r="X109" s="123"/>
+      <c r="Y109" s="123"/>
+      <c r="Z109" s="123"/>
+      <c r="AA109" s="123"/>
+      <c r="AB109" s="123"/>
+      <c r="AC109" s="123"/>
+      <c r="AD109" s="123"/>
+      <c r="AE109" s="123"/>
+      <c r="AF109" s="123"/>
+      <c r="AG109" s="124"/>
+      <c r="AH109" s="125"/>
+      <c r="AI109" s="126"/>
+      <c r="AJ109" s="115"/>
       <c r="AK109" s="15"/>
     </row>
-    <row r="110" spans="1:37" ht="24.95" customHeight="1">
-      <c r="A110" s="43" t="s">
-        <v>88</v>
-      </c>
+    <row r="110" spans="1:37" ht="18" customHeight="1">
+      <c r="A110" s="43"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
       <c r="D110" s="45"/>
-      <c r="E110" s="46" t="s">
-        <v>90</v>
-      </c>
+      <c r="E110" s="46"/>
       <c r="F110" s="47"/>
       <c r="G110" s="47"/>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
       <c r="J110" s="47"/>
       <c r="K110" s="48"/>
-      <c r="L110" s="49" t="s">
-        <v>91</v>
-      </c>
+      <c r="L110" s="49"/>
       <c r="M110" s="50"/>
       <c r="N110" s="50"/>
       <c r="O110" s="50"/>
@@ -9705,12 +9810,16 @@
       <c r="AJ110" s="2"/>
       <c r="AK110" s="15"/>
     </row>
-    <row r="111" spans="1:37" ht="18" customHeight="1">
-      <c r="A111" s="43"/>
+    <row r="111" spans="1:37" ht="24.95" customHeight="1">
+      <c r="A111" s="43" t="s">
+        <v>88</v>
+      </c>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
       <c r="D111" s="45"/>
-      <c r="E111" s="46"/>
+      <c r="E111" s="46" t="s">
+        <v>90</v>
+      </c>
       <c r="F111" s="47"/>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
@@ -9718,7 +9827,7 @@
       <c r="J111" s="47"/>
       <c r="K111" s="48"/>
       <c r="L111" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M111" s="50"/>
       <c r="N111" s="50"/>
@@ -9746,7 +9855,7 @@
       <c r="AJ111" s="2"/>
       <c r="AK111" s="15"/>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" ht="18" customHeight="1">
       <c r="A112" s="43"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -9759,7 +9868,7 @@
       <c r="J112" s="47"/>
       <c r="K112" s="48"/>
       <c r="L112" s="49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M112" s="50"/>
       <c r="N112" s="50"/>
@@ -9800,7 +9909,7 @@
       <c r="J113" s="47"/>
       <c r="K113" s="48"/>
       <c r="L113" s="49" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M113" s="50"/>
       <c r="N113" s="50"/>
@@ -9841,7 +9950,7 @@
       <c r="J114" s="47"/>
       <c r="K114" s="48"/>
       <c r="L114" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M114" s="50"/>
       <c r="N114" s="50"/>
@@ -9882,7 +9991,7 @@
       <c r="J115" s="47"/>
       <c r="K115" s="48"/>
       <c r="L115" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M115" s="50"/>
       <c r="N115" s="50"/>
@@ -9922,7 +10031,9 @@
       <c r="I116" s="47"/>
       <c r="J116" s="47"/>
       <c r="K116" s="48"/>
-      <c r="L116" s="49"/>
+      <c r="L116" s="49" t="s">
+        <v>95</v>
+      </c>
       <c r="M116" s="50"/>
       <c r="N116" s="50"/>
       <c r="O116" s="50"/>
@@ -9950,24 +10061,18 @@
       <c r="AK116" s="15"/>
     </row>
     <row r="117" spans="1:37">
-      <c r="A117" s="43" t="s">
-        <v>100</v>
-      </c>
+      <c r="A117" s="43"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
       <c r="D117" s="45"/>
-      <c r="E117" s="46" t="s">
-        <v>99</v>
-      </c>
+      <c r="E117" s="46"/>
       <c r="F117" s="47"/>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
       <c r="I117" s="47"/>
       <c r="J117" s="47"/>
       <c r="K117" s="48"/>
-      <c r="L117" s="49" t="s">
-        <v>102</v>
-      </c>
+      <c r="L117" s="49"/>
       <c r="M117" s="50"/>
       <c r="N117" s="50"/>
       <c r="O117" s="50"/>
@@ -9995,11 +10100,15 @@
       <c r="AK117" s="15"/>
     </row>
     <row r="118" spans="1:37">
-      <c r="A118" s="43"/>
+      <c r="A118" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
       <c r="D118" s="45"/>
-      <c r="E118" s="46"/>
+      <c r="E118" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="F118" s="47"/>
       <c r="G118" s="47"/>
       <c r="H118" s="47"/>
@@ -10007,7 +10116,7 @@
       <c r="J118" s="47"/>
       <c r="K118" s="48"/>
       <c r="L118" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M118" s="50"/>
       <c r="N118" s="50"/>
@@ -10048,7 +10157,7 @@
       <c r="J119" s="47"/>
       <c r="K119" s="48"/>
       <c r="L119" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M119" s="50"/>
       <c r="N119" s="50"/>
@@ -10089,7 +10198,7 @@
       <c r="J120" s="47"/>
       <c r="K120" s="48"/>
       <c r="L120" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M120" s="50"/>
       <c r="N120" s="50"/>
@@ -10130,7 +10239,7 @@
       <c r="J121" s="47"/>
       <c r="K121" s="48"/>
       <c r="L121" s="49" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="M121" s="50"/>
       <c r="N121" s="50"/>
@@ -10170,7 +10279,9 @@
       <c r="I122" s="47"/>
       <c r="J122" s="47"/>
       <c r="K122" s="48"/>
-      <c r="L122" s="49"/>
+      <c r="L122" s="49" t="s">
+        <v>95</v>
+      </c>
       <c r="M122" s="50"/>
       <c r="N122" s="50"/>
       <c r="O122" s="50"/>
@@ -10198,9 +10309,42 @@
       <c r="AK122" s="15"/>
     </row>
     <row r="123" spans="1:37">
-      <c r="AH123" s="15"/>
-      <c r="AI123" s="15"/>
-      <c r="AJ123" s="15"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="48"/>
+      <c r="L123" s="49"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
+      <c r="P123" s="50"/>
+      <c r="Q123" s="50"/>
+      <c r="R123" s="50"/>
+      <c r="S123" s="50"/>
+      <c r="T123" s="50"/>
+      <c r="U123" s="50"/>
+      <c r="V123" s="50"/>
+      <c r="W123" s="50"/>
+      <c r="X123" s="50"/>
+      <c r="Y123" s="50"/>
+      <c r="Z123" s="50"/>
+      <c r="AA123" s="50"/>
+      <c r="AB123" s="50"/>
+      <c r="AC123" s="50"/>
+      <c r="AD123" s="50"/>
+      <c r="AE123" s="50"/>
+      <c r="AF123" s="50"/>
+      <c r="AG123" s="51"/>
+      <c r="AH123" s="52"/>
+      <c r="AI123" s="53"/>
+      <c r="AJ123" s="2"/>
       <c r="AK123" s="15"/>
     </row>
     <row r="124" spans="1:37">
@@ -10209,108 +10353,369 @@
       <c r="AJ124" s="15"/>
       <c r="AK124" s="15"/>
     </row>
+    <row r="125" spans="1:37">
+      <c r="AH125" s="15"/>
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="15"/>
+      <c r="AK125" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="479">
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="E122:K122"/>
-    <mergeCell ref="L122:AG122"/>
-    <mergeCell ref="AH122:AI122"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="E116:K116"/>
-    <mergeCell ref="L116:AG116"/>
-    <mergeCell ref="AH116:AI116"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:K117"/>
-    <mergeCell ref="L117:AG117"/>
-    <mergeCell ref="AH117:AI117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="E118:K118"/>
-    <mergeCell ref="L118:AG118"/>
-    <mergeCell ref="AH118:AI118"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="E113:K113"/>
-    <mergeCell ref="L113:AG113"/>
-    <mergeCell ref="AH113:AI113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:K114"/>
-    <mergeCell ref="L114:AG114"/>
-    <mergeCell ref="AH114:AI114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:K115"/>
-    <mergeCell ref="L115:AG115"/>
-    <mergeCell ref="AH115:AI115"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="E109:K109"/>
-    <mergeCell ref="L109:AG109"/>
-    <mergeCell ref="AH109:AI109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:K110"/>
-    <mergeCell ref="L110:AG110"/>
-    <mergeCell ref="AH110:AI110"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="E120:K120"/>
-    <mergeCell ref="L120:AG120"/>
-    <mergeCell ref="AH120:AI120"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:K111"/>
-    <mergeCell ref="L111:AG111"/>
-    <mergeCell ref="AH111:AI111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:K112"/>
-    <mergeCell ref="L112:AG112"/>
-    <mergeCell ref="AH112:AI112"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="E119:K119"/>
-    <mergeCell ref="L119:AG119"/>
-    <mergeCell ref="AH119:AI119"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="L104:AG104"/>
-    <mergeCell ref="AH104:AI104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E105:K105"/>
-    <mergeCell ref="L105:AG105"/>
-    <mergeCell ref="AH105:AI105"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="E121:K121"/>
-    <mergeCell ref="L121:AG121"/>
-    <mergeCell ref="AH121:AI121"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="E106:K106"/>
-    <mergeCell ref="L106:AG106"/>
-    <mergeCell ref="AH106:AI106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="E107:K107"/>
-    <mergeCell ref="L107:AG107"/>
-    <mergeCell ref="AH107:AI107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="E108:K108"/>
-    <mergeCell ref="L108:AG108"/>
-    <mergeCell ref="AH108:AI108"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:K101"/>
-    <mergeCell ref="L101:AG101"/>
-    <mergeCell ref="AH101:AI101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:K102"/>
-    <mergeCell ref="L102:AG102"/>
-    <mergeCell ref="AH102:AI102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="E103:K103"/>
-    <mergeCell ref="L103:AG103"/>
-    <mergeCell ref="AH103:AI103"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E98:K98"/>
-    <mergeCell ref="L98:AG98"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E99:K99"/>
-    <mergeCell ref="L99:AG99"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="E100:K100"/>
-    <mergeCell ref="L100:AG100"/>
-    <mergeCell ref="AH100:AI100"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="E92:K92"/>
+    <mergeCell ref="L92:AG92"/>
+    <mergeCell ref="AH92:AI92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E93:K93"/>
+    <mergeCell ref="L93:AG93"/>
+    <mergeCell ref="AH93:AI93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="E94:K94"/>
+    <mergeCell ref="L94:AG94"/>
+    <mergeCell ref="AH94:AI94"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:K89"/>
+    <mergeCell ref="L89:AG89"/>
+    <mergeCell ref="AH89:AI89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:K90"/>
+    <mergeCell ref="L90:AG90"/>
+    <mergeCell ref="AH90:AI90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="L91:AG91"/>
+    <mergeCell ref="AH91:AI91"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="E85:K85"/>
+    <mergeCell ref="L85:AG85"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="E87:K87"/>
+    <mergeCell ref="L87:AG87"/>
+    <mergeCell ref="AH87:AI87"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:K88"/>
+    <mergeCell ref="L88:AG88"/>
+    <mergeCell ref="AH88:AI88"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="E82:K82"/>
+    <mergeCell ref="L82:AG82"/>
+    <mergeCell ref="AH82:AI82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="E83:K83"/>
+    <mergeCell ref="L83:AG83"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="E84:K84"/>
+    <mergeCell ref="L84:AG84"/>
+    <mergeCell ref="AH84:AI84"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:K79"/>
+    <mergeCell ref="L79:AG79"/>
+    <mergeCell ref="AH79:AI79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:K80"/>
+    <mergeCell ref="L80:AG80"/>
+    <mergeCell ref="AH80:AI80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:K81"/>
+    <mergeCell ref="L81:AG81"/>
+    <mergeCell ref="AH81:AI81"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="E77:K77"/>
+    <mergeCell ref="L77:AG77"/>
+    <mergeCell ref="AH77:AI77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:K78"/>
+    <mergeCell ref="L78:AG78"/>
+    <mergeCell ref="AH78:AI78"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:K65"/>
+    <mergeCell ref="L65:AG65"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:K66"/>
+    <mergeCell ref="L66:AG66"/>
+    <mergeCell ref="AH66:AI66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="L67:AG67"/>
+    <mergeCell ref="AH67:AI67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="L68:AG68"/>
+    <mergeCell ref="AH68:AI68"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="L74:AG74"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="E75:K75"/>
+    <mergeCell ref="L75:AG75"/>
+    <mergeCell ref="AH75:AI75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="E76:K76"/>
+    <mergeCell ref="L76:AG76"/>
+    <mergeCell ref="AH76:AI76"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:K64"/>
+    <mergeCell ref="L64:AG64"/>
+    <mergeCell ref="AH64:AI64"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="L72:AG72"/>
+    <mergeCell ref="AH72:AI72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="L73:AG73"/>
+    <mergeCell ref="AH73:AI73"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="L69:AG69"/>
+    <mergeCell ref="AH69:AI69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="L70:AG70"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="L71:AG71"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="L61:AG61"/>
+    <mergeCell ref="AH61:AI61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="L62:AG62"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:K63"/>
+    <mergeCell ref="L63:AG63"/>
+    <mergeCell ref="AH63:AI63"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="L57:AG57"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="L58:AG58"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="L60:AG60"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:K54"/>
+    <mergeCell ref="L54:AG54"/>
+    <mergeCell ref="AH54:AI54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="L55:AG55"/>
+    <mergeCell ref="AH55:AI55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="L56:AG56"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:K51"/>
+    <mergeCell ref="L51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="L52:AG52"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:K53"/>
+    <mergeCell ref="L53:AG53"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="L47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="L48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="L49:AG49"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="L44:AG44"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="L45:AG45"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:K46"/>
+    <mergeCell ref="L46:AG46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="L41:AG41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="L42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="L43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="L11:AG11"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="L40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="L39:AG39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="L37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:K7"/>
+    <mergeCell ref="L7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="L8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:K5"/>
+    <mergeCell ref="L3:R5"/>
+    <mergeCell ref="S3:AD5"/>
+    <mergeCell ref="AE3:AH5"/>
+    <mergeCell ref="AI3:AJ5"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="L38:AG38"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="L33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="L35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="L34:AG34"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L30:AG30"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="L31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="L32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="L25:AG25"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="L26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="L29:AG29"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="L28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="L22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="L23:AG23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="L19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="L20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="L21:AG21"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="L17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:AG13"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="L14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:AG15"/>
+    <mergeCell ref="AH15:AI15"/>
     <mergeCell ref="A50:D50"/>
     <mergeCell ref="E50:K50"/>
     <mergeCell ref="L50:AG50"/>
@@ -10335,361 +10740,106 @@
     <mergeCell ref="E95:K95"/>
     <mergeCell ref="L95:AG95"/>
     <mergeCell ref="AH95:AI95"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:AG13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="L14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="L17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="L19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="L20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="L21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="L23:AG23"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="L25:AG25"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="L26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="L29:AG29"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="L28:AG28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L30:AG30"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="L31:AG31"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="L32:AG32"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="L38:AG38"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="L33:AG33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="L35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="L34:AG34"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A3:K5"/>
-    <mergeCell ref="L3:R5"/>
-    <mergeCell ref="S3:AD5"/>
-    <mergeCell ref="AE3:AH5"/>
-    <mergeCell ref="AI3:AJ5"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:K7"/>
-    <mergeCell ref="L7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="L8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="L11:AG11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:K40"/>
-    <mergeCell ref="L40:AG40"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:K39"/>
-    <mergeCell ref="L39:AG39"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="L37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:K41"/>
-    <mergeCell ref="L41:AG41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:K42"/>
-    <mergeCell ref="L42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:K43"/>
-    <mergeCell ref="L43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:K44"/>
-    <mergeCell ref="L44:AG44"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="L45:AG45"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="L46:AG46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="L47:AG47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="L48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:K49"/>
-    <mergeCell ref="L49:AG49"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:K51"/>
-    <mergeCell ref="L51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="L52:AG52"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="E53:K53"/>
-    <mergeCell ref="L53:AG53"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E54:K54"/>
-    <mergeCell ref="L54:AG54"/>
-    <mergeCell ref="AH54:AI54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:K55"/>
-    <mergeCell ref="L55:AG55"/>
-    <mergeCell ref="AH55:AI55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="L56:AG56"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E57:K57"/>
-    <mergeCell ref="L57:AG57"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="E58:K58"/>
-    <mergeCell ref="L58:AG58"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:K60"/>
-    <mergeCell ref="L60:AG60"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:K61"/>
-    <mergeCell ref="L61:AG61"/>
-    <mergeCell ref="AH61:AI61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="L62:AG62"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:K63"/>
-    <mergeCell ref="L63:AG63"/>
-    <mergeCell ref="AH63:AI63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="E64:K64"/>
-    <mergeCell ref="L64:AG64"/>
-    <mergeCell ref="AH64:AI64"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="L72:AG72"/>
-    <mergeCell ref="AH72:AI72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="L73:AG73"/>
-    <mergeCell ref="AH73:AI73"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="L69:AG69"/>
-    <mergeCell ref="AH69:AI69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="L70:AG70"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="L71:AG71"/>
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:K74"/>
-    <mergeCell ref="L74:AG74"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:K75"/>
-    <mergeCell ref="L75:AG75"/>
-    <mergeCell ref="AH75:AI75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:K76"/>
-    <mergeCell ref="L76:AG76"/>
-    <mergeCell ref="AH76:AI76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="E77:K77"/>
-    <mergeCell ref="L77:AG77"/>
-    <mergeCell ref="AH77:AI77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:K78"/>
-    <mergeCell ref="L78:AG78"/>
-    <mergeCell ref="AH78:AI78"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:K65"/>
-    <mergeCell ref="L65:AG65"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:K66"/>
-    <mergeCell ref="L66:AG66"/>
-    <mergeCell ref="AH66:AI66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="L67:AG67"/>
-    <mergeCell ref="AH67:AI67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="L68:AG68"/>
-    <mergeCell ref="AH68:AI68"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:K79"/>
-    <mergeCell ref="L79:AG79"/>
-    <mergeCell ref="AH79:AI79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:K80"/>
-    <mergeCell ref="L80:AG80"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="L81:AG81"/>
-    <mergeCell ref="AH81:AI81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E82:K82"/>
-    <mergeCell ref="L82:AG82"/>
-    <mergeCell ref="AH82:AI82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="E83:K83"/>
-    <mergeCell ref="L83:AG83"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="E84:K84"/>
-    <mergeCell ref="L84:AG84"/>
-    <mergeCell ref="AH84:AI84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="E85:K85"/>
-    <mergeCell ref="L85:AG85"/>
-    <mergeCell ref="AH85:AI85"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="E87:K87"/>
-    <mergeCell ref="L87:AG87"/>
-    <mergeCell ref="AH87:AI87"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:K88"/>
-    <mergeCell ref="L88:AG88"/>
-    <mergeCell ref="AH88:AI88"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="E89:K89"/>
-    <mergeCell ref="L89:AG89"/>
-    <mergeCell ref="AH89:AI89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:K90"/>
-    <mergeCell ref="L90:AG90"/>
-    <mergeCell ref="AH90:AI90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="L91:AG91"/>
-    <mergeCell ref="AH91:AI91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="E92:K92"/>
-    <mergeCell ref="L92:AG92"/>
-    <mergeCell ref="AH92:AI92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E93:K93"/>
-    <mergeCell ref="L93:AG93"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="E94:K94"/>
-    <mergeCell ref="L94:AG94"/>
-    <mergeCell ref="AH94:AI94"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E98:K98"/>
+    <mergeCell ref="L98:AG98"/>
+    <mergeCell ref="AH98:AI98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E99:K99"/>
+    <mergeCell ref="L99:AG99"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="E100:K100"/>
+    <mergeCell ref="L100:AG100"/>
+    <mergeCell ref="AH100:AI100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:K101"/>
+    <mergeCell ref="L101:AG101"/>
+    <mergeCell ref="AH101:AI101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:K102"/>
+    <mergeCell ref="L102:AG102"/>
+    <mergeCell ref="AH102:AI102"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="L104:AG104"/>
+    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:K105"/>
+    <mergeCell ref="L105:AG105"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:K106"/>
+    <mergeCell ref="L106:AG106"/>
+    <mergeCell ref="AH106:AI106"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:K122"/>
+    <mergeCell ref="L122:AG122"/>
+    <mergeCell ref="AH122:AI122"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:K107"/>
+    <mergeCell ref="L107:AG107"/>
+    <mergeCell ref="AH107:AI107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:K108"/>
+    <mergeCell ref="L108:AG108"/>
+    <mergeCell ref="AH108:AI108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="E109:K109"/>
+    <mergeCell ref="L109:AG109"/>
+    <mergeCell ref="AH109:AI109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:K110"/>
+    <mergeCell ref="L110:AG110"/>
+    <mergeCell ref="AH110:AI110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:K111"/>
+    <mergeCell ref="L111:AG111"/>
+    <mergeCell ref="AH111:AI111"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="E121:K121"/>
+    <mergeCell ref="L121:AG121"/>
+    <mergeCell ref="AH121:AI121"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:K112"/>
+    <mergeCell ref="L112:AG112"/>
+    <mergeCell ref="AH112:AI112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:K113"/>
+    <mergeCell ref="L113:AG113"/>
+    <mergeCell ref="AH113:AI113"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="E120:K120"/>
+    <mergeCell ref="L120:AG120"/>
+    <mergeCell ref="AH120:AI120"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:K114"/>
+    <mergeCell ref="L114:AG114"/>
+    <mergeCell ref="AH114:AI114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:K115"/>
+    <mergeCell ref="L115:AG115"/>
+    <mergeCell ref="AH115:AI115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E116:K116"/>
+    <mergeCell ref="L116:AG116"/>
+    <mergeCell ref="AH116:AI116"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="E123:K123"/>
+    <mergeCell ref="L123:AG123"/>
+    <mergeCell ref="AH123:AI123"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="E117:K117"/>
+    <mergeCell ref="L117:AG117"/>
+    <mergeCell ref="AH117:AI117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="E118:K118"/>
+    <mergeCell ref="L118:AG118"/>
+    <mergeCell ref="AH118:AI118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="E119:K119"/>
+    <mergeCell ref="L119:AG119"/>
+    <mergeCell ref="AH119:AI119"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
